--- a/izmir_hal_fiyatlari/2025-06-26.xlsx
+++ b/izmir_hal_fiyatlari/2025-06-26.xlsx
@@ -2082,13 +2082,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>12.5</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>8.75</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:6">
